--- a/src/_STAR_Holidays.xlsx
+++ b/src/_STAR_Holidays.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26712"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26821"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://argenxbvba.sharepoint.com/sites/Biostatistics/Shared Documents/STAR admin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="486" documentId="8_{69DDE3F6-1CBB-45B0-B525-3ED66AC440F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD3CA9B1-A14A-414E-B27A-02FA76CE9A0B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0119A678-8674-46B7-9ADA-569B49707EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="0" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="26" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="117">
   <si>
     <t>Fill names &amp; Roles HERE!</t>
   </si>
@@ -241,10 +241,10 @@
     <t>N1</t>
   </si>
   <si>
-    <t>PT (aternoon)</t>
+    <t>N2</t>
   </si>
   <si>
-    <t>N2</t>
+    <t>PT (aternoon)</t>
   </si>
   <si>
     <t>Week 31</t>
@@ -605,13 +605,13 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -28430,7 +28430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A218D6E-630C-424B-922E-57031C3D8B98}">
   <dimension ref="B1:C45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -28805,82 +28805,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:38" ht="12" customHeight="1">
-      <c r="D1" s="21">
+      <c r="D1" s="19">
         <v>2024</v>
       </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="21"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="19"/>
     </row>
     <row r="2" spans="2:38" ht="12" customHeight="1">
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21" t="s">
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21" t="s">
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21" t="s">
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21" t="s">
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="21"/>
-      <c r="AG2" s="21"/>
-      <c r="AH2" s="21"/>
+      <c r="AC2" s="19"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="19"/>
+      <c r="AF2" s="19"/>
+      <c r="AG2" s="19"/>
+      <c r="AH2" s="19"/>
     </row>
     <row r="3" spans="2:38" ht="12" customHeight="1">
       <c r="B3" s="7"/>
@@ -28980,13 +28980,13 @@
       <c r="AH3" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="AI3" s="19" t="s">
+      <c r="AI3" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="AK3" s="19" t="s">
+      <c r="AK3" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="AL3" s="19" t="s">
+      <c r="AL3" s="20" t="s">
         <v>38</v>
       </c>
     </row>
@@ -29086,9 +29086,9 @@
       <c r="AH4" s="2">
         <v>31</v>
       </c>
-      <c r="AI4" s="19"/>
-      <c r="AK4" s="19"/>
-      <c r="AL4" s="19"/>
+      <c r="AI4" s="20"/>
+      <c r="AK4" s="20"/>
+      <c r="AL4" s="20"/>
     </row>
     <row r="5" spans="2:38" ht="12" customHeight="1">
       <c r="B5" s="7"/>
@@ -29186,9 +29186,9 @@
       <c r="AH5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AI5" s="19"/>
-      <c r="AK5" s="19"/>
-      <c r="AL5" s="19"/>
+      <c r="AI5" s="20"/>
+      <c r="AK5" s="20"/>
+      <c r="AL5" s="20"/>
     </row>
     <row r="6" spans="2:38" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="4" t="str">
@@ -29236,8 +29236,8 @@
         <f t="shared" ref="AI6:AI45" si="0">(COUNTIF(D6:AH6,"H")*1)+(COUNTIF(D6:AH6,"H1")*0.5)+(COUNTIF(D6:AH6,"H2")*0.5)+(COUNTIF(D6:AH6,"Q")*0.25)+(COUNTIF(D6:AH6,"E")*1)</f>
         <v>0</v>
       </c>
-      <c r="AK6" s="20"/>
-      <c r="AL6" s="20"/>
+      <c r="AK6" s="21"/>
+      <c r="AL6" s="21"/>
     </row>
     <row r="7" spans="2:38" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="4" t="str">
@@ -29657,10 +29657,10 @@
         <v>0</v>
       </c>
       <c r="AK14" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL14" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="AL14" s="5" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="15" spans="2:38" ht="20.100000000000001" customHeight="1">
@@ -31074,17 +31074,17 @@
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <autoFilter ref="B1:C20" xr:uid="{00000000-0001-0000-0B00-000000000000}"/>
   <mergeCells count="11">
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="AI3:AI5"/>
-    <mergeCell ref="AK3:AK5"/>
-    <mergeCell ref="AL3:AL5"/>
-    <mergeCell ref="AK6:AL6"/>
     <mergeCell ref="D1:AH1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:M2"/>
     <mergeCell ref="N2:T2"/>
     <mergeCell ref="U2:AA2"/>
     <mergeCell ref="AB2:AH2"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="AI3:AI5"/>
+    <mergeCell ref="AK3:AK5"/>
+    <mergeCell ref="AL3:AL5"/>
+    <mergeCell ref="AK6:AL6"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:AH18 D20:AH45 D19:H19 J19:O19 Q19:V19 X19:AC19 AE19:AH19">
     <cfRule type="expression" dxfId="143" priority="37">
@@ -31263,80 +31263,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:37" ht="12" customHeight="1">
-      <c r="D1" s="21">
+      <c r="D1" s="19">
         <v>2024</v>
       </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="21"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="19"/>
     </row>
     <row r="2" spans="2:37" ht="12" customHeight="1">
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21" t="s">
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21" t="s">
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21" t="s">
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="21" t="s">
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="19"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="19"/>
+      <c r="AF2" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="AG2" s="21"/>
+      <c r="AG2" s="19"/>
     </row>
     <row r="3" spans="2:37" ht="12" customHeight="1">
       <c r="B3" s="7"/>
@@ -31433,13 +31433,13 @@
       <c r="AG3" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="AH3" s="19" t="s">
+      <c r="AH3" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="AJ3" s="19" t="s">
+      <c r="AJ3" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="AK3" s="19" t="s">
+      <c r="AK3" s="20" t="s">
         <v>38</v>
       </c>
     </row>
@@ -31536,9 +31536,9 @@
       <c r="AG4" s="2">
         <v>30</v>
       </c>
-      <c r="AH4" s="19"/>
-      <c r="AJ4" s="19"/>
-      <c r="AK4" s="19"/>
+      <c r="AH4" s="20"/>
+      <c r="AJ4" s="20"/>
+      <c r="AK4" s="20"/>
     </row>
     <row r="5" spans="2:37" ht="12" customHeight="1">
       <c r="B5" s="7"/>
@@ -31633,9 +31633,9 @@
       <c r="AG5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AH5" s="19"/>
-      <c r="AJ5" s="19"/>
-      <c r="AK5" s="19"/>
+      <c r="AH5" s="20"/>
+      <c r="AJ5" s="20"/>
+      <c r="AK5" s="20"/>
     </row>
     <row r="6" spans="2:37" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="4" t="str">
@@ -31682,8 +31682,8 @@
         <f t="shared" ref="AH6:AH45" si="0">(COUNTIF(D6:AG6,"H")*1)+(COUNTIF(D6:AG6,"H1")*0.5)+(COUNTIF(D6:AG6,"H2")*0.5)+(COUNTIF(D6:AG6,"Q")*0.25)+(COUNTIF(D6:AG6,"E")*1)</f>
         <v>0</v>
       </c>
-      <c r="AJ6" s="20"/>
-      <c r="AK6" s="20"/>
+      <c r="AJ6" s="21"/>
+      <c r="AK6" s="21"/>
     </row>
     <row r="7" spans="2:37" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="4" t="str">
@@ -32093,10 +32093,10 @@
         <v>0</v>
       </c>
       <c r="AJ14" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK14" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="AK14" s="5" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="15" spans="2:37" ht="20.100000000000001" customHeight="1">
@@ -33481,17 +33481,17 @@
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <autoFilter ref="B1:C40" xr:uid="{00000000-0001-0000-0700-000000000000}"/>
   <mergeCells count="11">
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="AH3:AH5"/>
-    <mergeCell ref="AJ3:AJ5"/>
-    <mergeCell ref="AK3:AK5"/>
-    <mergeCell ref="AJ6:AK6"/>
     <mergeCell ref="D1:AG1"/>
     <mergeCell ref="D2:J2"/>
     <mergeCell ref="K2:Q2"/>
     <mergeCell ref="R2:X2"/>
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="AH3:AH5"/>
+    <mergeCell ref="AJ3:AJ5"/>
+    <mergeCell ref="AK3:AK5"/>
+    <mergeCell ref="AJ6:AK6"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:AG18 D20:AG45 D19:E19 G19:L19 N19:S19 U19:Z19 AB19:AG19">
     <cfRule type="expression" dxfId="95" priority="37">
@@ -33670,82 +33670,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:38" ht="12" customHeight="1">
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="21"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="19"/>
     </row>
     <row r="2" spans="2:38" ht="12" customHeight="1">
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21" t="s">
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21" t="s">
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21" t="s">
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21" t="s">
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="19"/>
+      <c r="AD2" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="21"/>
-      <c r="AG2" s="21"/>
-      <c r="AH2" s="21"/>
+      <c r="AE2" s="19"/>
+      <c r="AF2" s="19"/>
+      <c r="AG2" s="19"/>
+      <c r="AH2" s="19"/>
     </row>
     <row r="3" spans="2:38" ht="12" customHeight="1">
       <c r="B3" s="7"/>
@@ -33845,13 +33845,13 @@
       <c r="AH3" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="AI3" s="19" t="s">
+      <c r="AI3" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="AK3" s="19" t="s">
+      <c r="AK3" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="AL3" s="19" t="s">
+      <c r="AL3" s="20" t="s">
         <v>38</v>
       </c>
     </row>
@@ -33951,9 +33951,9 @@
       <c r="AH4" s="2">
         <v>31</v>
       </c>
-      <c r="AI4" s="19"/>
-      <c r="AK4" s="19"/>
-      <c r="AL4" s="19"/>
+      <c r="AI4" s="20"/>
+      <c r="AK4" s="20"/>
+      <c r="AL4" s="20"/>
     </row>
     <row r="5" spans="2:38" ht="12" customHeight="1">
       <c r="B5" s="7"/>
@@ -34051,9 +34051,9 @@
       <c r="AH5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AI5" s="19"/>
-      <c r="AK5" s="19"/>
-      <c r="AL5" s="19"/>
+      <c r="AI5" s="20"/>
+      <c r="AK5" s="20"/>
+      <c r="AL5" s="20"/>
     </row>
     <row r="6" spans="2:38" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="4" t="str">
@@ -34105,8 +34105,8 @@
         <f t="shared" ref="AI6:AI45" si="0">(COUNTIF(D6:AG6,"H")*1)+(COUNTIF(D6:AG6,"H1")*0.5)+(COUNTIF(D6:AG6,"H2")*0.5)+(COUNTIF(D6:AG6,"Q")*0.25)+(COUNTIF(D6:AG6,"E")*1)</f>
         <v>0</v>
       </c>
-      <c r="AK6" s="20"/>
-      <c r="AL6" s="20"/>
+      <c r="AK6" s="21"/>
+      <c r="AL6" s="21"/>
     </row>
     <row r="7" spans="2:38" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="4" t="str">
@@ -34536,10 +34536,10 @@
         <v>0</v>
       </c>
       <c r="AK14" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL14" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="AL14" s="5" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="15" spans="2:38" ht="20.100000000000001" customHeight="1">
@@ -35965,17 +35965,17 @@
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <autoFilter ref="B1:C20" xr:uid="{00000000-0001-0000-0A00-000000000000}"/>
   <mergeCells count="11">
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="AI3:AI5"/>
-    <mergeCell ref="AK3:AK5"/>
-    <mergeCell ref="AL3:AL5"/>
-    <mergeCell ref="AK6:AL6"/>
     <mergeCell ref="D1:AH1"/>
     <mergeCell ref="AD2:AH2"/>
     <mergeCell ref="D2:H2"/>
     <mergeCell ref="I2:O2"/>
     <mergeCell ref="P2:V2"/>
     <mergeCell ref="W2:AC2"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="AI3:AI5"/>
+    <mergeCell ref="AK3:AK5"/>
+    <mergeCell ref="AL3:AL5"/>
+    <mergeCell ref="AK6:AL6"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="D6:AH18 D20:AH45 D19:J19 L19:Q19 S19:X19 Z19:AE19 AG19:AH19">
@@ -36140,8 +36140,8 @@
   <dimension ref="B1:AL45"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="T21" sqref="T21"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D16" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="AK16" sqref="AK16"/>
       <selection pane="bottomLeft"/>
       <selection pane="topRight"/>
     </sheetView>
@@ -36157,82 +36157,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:38" ht="12" customHeight="1">
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="21"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="19"/>
     </row>
     <row r="2" spans="2:38" ht="12" customHeight="1">
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21" t="s">
+      <c r="E2" s="19"/>
+      <c r="F2" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21" t="s">
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21" t="s">
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21" t="s">
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="21"/>
-      <c r="AG2" s="21"/>
-      <c r="AH2" s="21" t="s">
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="19"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="19"/>
+      <c r="AF2" s="19"/>
+      <c r="AG2" s="19"/>
+      <c r="AH2" s="19" t="s">
         <v>33</v>
       </c>
     </row>
@@ -36334,13 +36334,13 @@
       <c r="AH3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AI3" s="19" t="s">
+      <c r="AI3" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="AK3" s="19" t="s">
+      <c r="AK3" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="AL3" s="19" t="s">
+      <c r="AL3" s="20" t="s">
         <v>38</v>
       </c>
     </row>
@@ -36440,9 +36440,9 @@
       <c r="AH4" s="2">
         <v>31</v>
       </c>
-      <c r="AI4" s="19"/>
-      <c r="AK4" s="19"/>
-      <c r="AL4" s="19"/>
+      <c r="AI4" s="20"/>
+      <c r="AK4" s="20"/>
+      <c r="AL4" s="20"/>
     </row>
     <row r="5" spans="2:38" ht="12" customHeight="1">
       <c r="B5" s="7"/>
@@ -36540,9 +36540,9 @@
       <c r="AH5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AI5" s="19"/>
-      <c r="AK5" s="19"/>
-      <c r="AL5" s="19"/>
+      <c r="AI5" s="20"/>
+      <c r="AK5" s="20"/>
+      <c r="AL5" s="20"/>
     </row>
     <row r="6" spans="2:38" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="4" t="str">
@@ -36594,8 +36594,8 @@
         <f t="shared" ref="AI6:AI20" si="0">(COUNTIF(D6:AH6,"H")*1)+(COUNTIF(D6:AH6,"H1")*0.5)+(COUNTIF(D6:AH6,"H2")*0.5)+(COUNTIF(D6:AH6,"Q")*0.25)+(COUNTIF(D6:AH6,"E")*1)</f>
         <v>2</v>
       </c>
-      <c r="AK6" s="20"/>
-      <c r="AL6" s="20"/>
+      <c r="AK6" s="21"/>
+      <c r="AL6" s="21"/>
     </row>
     <row r="7" spans="2:38" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="4" t="str">
@@ -36633,13 +36633,15 @@
       <c r="AB7" s="14"/>
       <c r="AC7" s="14"/>
       <c r="AD7" s="14"/>
-      <c r="AE7" s="14"/>
+      <c r="AE7" s="14" t="s">
+        <v>1</v>
+      </c>
       <c r="AF7" s="6"/>
       <c r="AG7" s="6"/>
       <c r="AH7" s="14"/>
       <c r="AI7" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK7" s="6" t="s">
         <v>47</v>
@@ -36987,10 +36989,12 @@
       <c r="AE12" s="14"/>
       <c r="AF12" s="6"/>
       <c r="AG12" s="6"/>
-      <c r="AH12" s="14"/>
+      <c r="AH12" s="14" t="s">
+        <v>1</v>
+      </c>
       <c r="AI12" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK12" s="6" t="s">
         <v>56</v>
@@ -37084,7 +37088,9 @@
       <c r="Z14" s="6"/>
       <c r="AA14" s="14"/>
       <c r="AB14" s="14"/>
-      <c r="AC14" s="14"/>
+      <c r="AC14" s="14" t="s">
+        <v>59</v>
+      </c>
       <c r="AD14" s="14"/>
       <c r="AE14" s="14"/>
       <c r="AF14" s="6"/>
@@ -37095,10 +37101,10 @@
         <v>0</v>
       </c>
       <c r="AK14" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL14" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="AL14" s="5" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="15" spans="2:38" ht="20.100000000000001" customHeight="1">
@@ -38592,6 +38598,11 @@
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <autoFilter ref="B1:C40" xr:uid="{00000000-0001-0000-0600-000000000000}"/>
   <mergeCells count="12">
+    <mergeCell ref="AI3:AI5"/>
+    <mergeCell ref="AK3:AK5"/>
+    <mergeCell ref="AL3:AL5"/>
+    <mergeCell ref="AK6:AL6"/>
+    <mergeCell ref="C3:C5"/>
     <mergeCell ref="D1:AH1"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:L2"/>
@@ -38599,11 +38610,6 @@
     <mergeCell ref="T2:Z2"/>
     <mergeCell ref="AA2:AG2"/>
     <mergeCell ref="AH2"/>
-    <mergeCell ref="AI3:AI5"/>
-    <mergeCell ref="AK3:AK5"/>
-    <mergeCell ref="AL3:AL5"/>
-    <mergeCell ref="AK6:AL6"/>
-    <mergeCell ref="C3:C5"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:AH7 D9:AH9 D6:I6 K6:S6 U6:AH6 D10:S10 X10:Z10 AF10:AH10 K21:L23 R21:S23 Y21:Z23 AF21:AG23 D11:AH18 D20:AH20 D19:N19 P19:U19 AD19:AH19 W19:AB19">
     <cfRule type="expression" dxfId="947" priority="159">
@@ -39108,9 +39114,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B1:AL45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="PL6" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="AF33" sqref="AF33"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="X25" sqref="X25"/>
       <selection pane="bottomLeft"/>
       <selection pane="topRight"/>
     </sheetView>
@@ -39127,82 +39133,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:38" ht="12" customHeight="1">
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="21"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="19"/>
     </row>
     <row r="2" spans="2:38" ht="12" customHeight="1">
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21" t="s">
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21" t="s">
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21" t="s">
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21" t="s">
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="19"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="AF2" s="21"/>
-      <c r="AG2" s="21"/>
-      <c r="AH2" s="21"/>
+      <c r="AF2" s="19"/>
+      <c r="AG2" s="19"/>
+      <c r="AH2" s="19"/>
     </row>
     <row r="3" spans="2:38" ht="12" customHeight="1">
       <c r="B3" s="7"/>
@@ -39302,13 +39308,13 @@
       <c r="AH3" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AI3" s="19" t="s">
+      <c r="AI3" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="AK3" s="19" t="s">
+      <c r="AK3" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="AL3" s="19" t="s">
+      <c r="AL3" s="20" t="s">
         <v>38</v>
       </c>
     </row>
@@ -39408,9 +39414,9 @@
       <c r="AH4" s="2">
         <v>31</v>
       </c>
-      <c r="AI4" s="19"/>
-      <c r="AK4" s="19"/>
-      <c r="AL4" s="19"/>
+      <c r="AI4" s="20"/>
+      <c r="AK4" s="20"/>
+      <c r="AL4" s="20"/>
     </row>
     <row r="5" spans="2:38" ht="12" customHeight="1">
       <c r="B5" s="7"/>
@@ -39508,9 +39514,9 @@
       <c r="AH5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AI5" s="19"/>
-      <c r="AK5" s="19"/>
-      <c r="AL5" s="19"/>
+      <c r="AI5" s="20"/>
+      <c r="AK5" s="20"/>
+      <c r="AL5" s="20"/>
     </row>
     <row r="6" spans="2:38" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="4" t="str">
@@ -39534,17 +39540,29 @@
       <c r="N6" s="14"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
-      <c r="Q6" s="14"/>
+      <c r="Q6" s="14" t="s">
+        <v>1</v>
+      </c>
       <c r="R6" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
+      <c r="S6" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="T6" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="U6" s="14" t="s">
+        <v>1</v>
+      </c>
       <c r="V6" s="6"/>
       <c r="W6" s="6"/>
-      <c r="X6" s="14"/>
-      <c r="Y6" s="14"/>
+      <c r="X6" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="14" t="s">
+        <v>1</v>
+      </c>
       <c r="Z6" s="14"/>
       <c r="AA6" s="14"/>
       <c r="AB6" s="14"/>
@@ -39556,10 +39574,10 @@
       <c r="AH6" s="14"/>
       <c r="AI6" s="6">
         <f t="shared" ref="AI6:AI20" si="0">(COUNTIF(D6:AH6,"H")*1)+(COUNTIF(D6:AH6,"H1")*0.5)+(COUNTIF(D6:AH6,"H2")*0.5)+(COUNTIF(D6:AH6,"Q")*0.25)+(COUNTIF(D6:AH6,"E")*1)</f>
-        <v>0</v>
-      </c>
-      <c r="AK6" s="20"/>
-      <c r="AL6" s="20"/>
+        <v>6</v>
+      </c>
+      <c r="AK6" s="21"/>
+      <c r="AL6" s="21"/>
     </row>
     <row r="7" spans="2:38" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="4" t="str">
@@ -39725,7 +39743,9 @@
       <c r="X9" s="14"/>
       <c r="Y9" s="14"/>
       <c r="Z9" s="14"/>
-      <c r="AA9" s="14"/>
+      <c r="AA9" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="AB9" s="14"/>
       <c r="AC9" s="6"/>
       <c r="AD9" s="6"/>
@@ -39735,7 +39755,7 @@
       <c r="AH9" s="14"/>
       <c r="AI9" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AK9" s="6" t="s">
         <v>51</v>
@@ -39814,7 +39834,9 @@
       <c r="I11" s="6"/>
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
+      <c r="L11" s="14" t="s">
+        <v>1</v>
+      </c>
       <c r="M11" s="14"/>
       <c r="N11" s="14"/>
       <c r="O11" s="6"/>
@@ -39829,7 +39851,9 @@
       <c r="X11" s="14"/>
       <c r="Y11" s="14"/>
       <c r="Z11" s="14"/>
-      <c r="AA11" s="14"/>
+      <c r="AA11" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="AB11" s="14" t="s">
         <v>1</v>
       </c>
@@ -39843,7 +39867,7 @@
       <c r="AH11" s="14"/>
       <c r="AI11" s="6">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AK11" s="6" t="s">
         <v>55</v>
@@ -39861,7 +39885,9 @@
         <f>List!C12</f>
         <v>Robert Woodiwiss</v>
       </c>
-      <c r="D12" s="14"/>
+      <c r="D12" s="14" t="s">
+        <v>1</v>
+      </c>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
@@ -39894,7 +39920,7 @@
       <c r="AH12" s="14"/>
       <c r="AI12" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK12" s="6" t="s">
         <v>56</v>
@@ -40005,10 +40031,10 @@
         <v>1</v>
       </c>
       <c r="AK14" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL14" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="AL14" s="5" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="15" spans="2:38" ht="20.100000000000001" customHeight="1">
@@ -40036,9 +40062,7 @@
       <c r="I15" s="6"/>
       <c r="J15" s="14"/>
       <c r="K15" s="14"/>
-      <c r="L15" s="14" t="s">
-        <v>60</v>
-      </c>
+      <c r="L15" s="14"/>
       <c r="M15" s="14"/>
       <c r="N15" s="14"/>
       <c r="O15" s="6"/>
@@ -40048,7 +40072,7 @@
         <v>46</v>
       </c>
       <c r="S15" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T15" s="14"/>
       <c r="U15" s="14"/>
@@ -40057,7 +40081,7 @@
       <c r="X15" s="14"/>
       <c r="Y15" s="14"/>
       <c r="Z15" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AA15" s="14"/>
       <c r="AB15" s="14"/>
@@ -40066,7 +40090,7 @@
       <c r="AE15" s="14"/>
       <c r="AF15" s="14"/>
       <c r="AG15" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AH15" s="14"/>
       <c r="AI15" s="6">
@@ -40535,7 +40559,9 @@
       </c>
       <c r="V24" s="6"/>
       <c r="W24" s="6"/>
-      <c r="X24" s="14"/>
+      <c r="X24" s="14" t="s">
+        <v>1</v>
+      </c>
       <c r="Y24" s="14"/>
       <c r="Z24" s="14"/>
       <c r="AA24" s="14"/>
@@ -40545,10 +40571,12 @@
       <c r="AE24" s="14"/>
       <c r="AF24" s="14"/>
       <c r="AG24" s="14"/>
-      <c r="AH24" s="14"/>
+      <c r="AH24" s="14" t="s">
+        <v>1</v>
+      </c>
       <c r="AI24" s="6">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="2:35" ht="20.100000000000001" customHeight="1">
@@ -41500,17 +41528,17 @@
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <autoFilter ref="B1:C40" xr:uid="{00000000-0001-0000-0700-000000000000}"/>
   <mergeCells count="11">
+    <mergeCell ref="AI3:AI5"/>
+    <mergeCell ref="AK3:AK5"/>
+    <mergeCell ref="AL3:AL5"/>
+    <mergeCell ref="AK6:AL6"/>
+    <mergeCell ref="C3:C5"/>
     <mergeCell ref="D1:AH1"/>
     <mergeCell ref="D2:I2"/>
     <mergeCell ref="J2:P2"/>
     <mergeCell ref="Q2:W2"/>
     <mergeCell ref="X2:AD2"/>
     <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AI3:AI5"/>
-    <mergeCell ref="AK3:AK5"/>
-    <mergeCell ref="AL3:AL5"/>
-    <mergeCell ref="AK6:AL6"/>
-    <mergeCell ref="C3:C5"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:AH6 D8:AH14 O7:AH7 F7:I7 D16:AH18 D15:K15 M15:R15 T15:AF15 AH15 D20:AH45 D19 F19:K19 T19:Y19 AA19:AF19 AH19 M19:R19">
     <cfRule type="expression" dxfId="791" priority="145">
@@ -41940,8 +41968,8 @@
   <dimension ref="B1:AK45"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="R6" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="R14" sqref="R14"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
       <selection pane="bottomLeft"/>
       <selection pane="topRight"/>
     </sheetView>
@@ -41957,80 +41985,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:37" ht="12" customHeight="1">
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="21"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="19"/>
     </row>
     <row r="2" spans="2:37" ht="12" customHeight="1">
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21" t="s">
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21" t="s">
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21" t="s">
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21" t="s">
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="21"/>
-      <c r="AG2" s="21"/>
+      <c r="AC2" s="19"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="19"/>
+      <c r="AF2" s="19"/>
+      <c r="AG2" s="19"/>
     </row>
     <row r="3" spans="2:37" ht="12" customHeight="1">
       <c r="B3" s="7"/>
@@ -42127,13 +42155,13 @@
       <c r="AG3" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="AH3" s="19" t="s">
+      <c r="AH3" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="AJ3" s="19" t="s">
+      <c r="AJ3" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="AK3" s="19" t="s">
+      <c r="AK3" s="20" t="s">
         <v>38</v>
       </c>
     </row>
@@ -42230,9 +42258,9 @@
       <c r="AG4" s="2">
         <v>30</v>
       </c>
-      <c r="AH4" s="19"/>
-      <c r="AJ4" s="19"/>
-      <c r="AK4" s="19"/>
+      <c r="AH4" s="20"/>
+      <c r="AJ4" s="20"/>
+      <c r="AK4" s="20"/>
     </row>
     <row r="5" spans="2:37" ht="12" customHeight="1">
       <c r="B5" s="7"/>
@@ -42327,9 +42355,9 @@
       <c r="AG5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AH5" s="19"/>
-      <c r="AJ5" s="19"/>
-      <c r="AK5" s="19"/>
+      <c r="AH5" s="20"/>
+      <c r="AJ5" s="20"/>
+      <c r="AK5" s="20"/>
     </row>
     <row r="6" spans="2:37" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="4" t="str">
@@ -42374,8 +42402,8 @@
         <f t="shared" ref="AH6:AH20" si="0">(COUNTIF(D6:AG6,"H")*1)+(COUNTIF(D6:AG6,"H1")*0.5)+(COUNTIF(D6:AG6,"H2")*0.5)+(COUNTIF(D6:AG6,"Q")*0.25)+(COUNTIF(D6:AG6,"E")*1)</f>
         <v>0</v>
       </c>
-      <c r="AJ6" s="20"/>
-      <c r="AK6" s="20"/>
+      <c r="AJ6" s="21"/>
+      <c r="AK6" s="21"/>
     </row>
     <row r="7" spans="2:37" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="4" t="str">
@@ -42757,18 +42785,10 @@
       <c r="D14" s="14"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="I14" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="J14" s="14" t="s">
-        <v>1</v>
-      </c>
+      <c r="G14" s="14"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="14"/>
       <c r="K14" s="14" t="s">
         <v>1</v>
       </c>
@@ -42791,8 +42811,12 @@
       </c>
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
-      <c r="U14" s="14"/>
-      <c r="V14" s="14"/>
+      <c r="U14" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="V14" s="14" t="s">
+        <v>1</v>
+      </c>
       <c r="W14" s="14"/>
       <c r="X14" s="14"/>
       <c r="Y14" s="14"/>
@@ -42806,13 +42830,13 @@
       <c r="AG14" s="6"/>
       <c r="AH14" s="6">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AJ14" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK14" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="AK14" s="5" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="15" spans="2:37" ht="20.100000000000001" customHeight="1">
@@ -42830,7 +42854,7 @@
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J15" s="14"/>
       <c r="K15" s="14"/>
@@ -42839,7 +42863,7 @@
       <c r="N15" s="14"/>
       <c r="O15" s="14"/>
       <c r="P15" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="14"/>
       <c r="R15" s="14"/>
@@ -42848,7 +42872,7 @@
       <c r="U15" s="14"/>
       <c r="V15" s="14"/>
       <c r="W15" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X15" s="14"/>
       <c r="Y15" s="14"/>
@@ -42857,7 +42881,7 @@
       <c r="AB15" s="14"/>
       <c r="AC15" s="14"/>
       <c r="AD15" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AE15" s="14"/>
       <c r="AF15" s="14"/>
@@ -43215,7 +43239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:34" ht="16.5">
+    <row r="23" spans="2:34">
       <c r="B23" s="4" t="str">
         <f>List!B23</f>
         <v>P</v>
@@ -44243,19 +44267,19 @@
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <autoFilter ref="B1:C41" xr:uid="{00000000-0001-0000-0800-000000000000}"/>
   <mergeCells count="11">
+    <mergeCell ref="AH3:AH5"/>
+    <mergeCell ref="AJ3:AJ5"/>
+    <mergeCell ref="AK3:AK5"/>
+    <mergeCell ref="AJ6:AK6"/>
+    <mergeCell ref="C3:C5"/>
     <mergeCell ref="D1:AG1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:M2"/>
     <mergeCell ref="N2:T2"/>
     <mergeCell ref="U2:AA2"/>
     <mergeCell ref="AB2:AG2"/>
-    <mergeCell ref="AH3:AH5"/>
-    <mergeCell ref="AJ3:AJ5"/>
-    <mergeCell ref="AK3:AK5"/>
-    <mergeCell ref="AJ6:AK6"/>
-    <mergeCell ref="C3:C5"/>
   </mergeCells>
-  <conditionalFormatting sqref="D6:AG6 D8:AG14 D7:AB7 AD7:AG7 D16:AG18 D15:H15 J15:O15 Q15:V15 X15:AC15 AE15:AG15 D20:AG45 Q19:V19 X19:AC19 AE19:AG19 D19:H19 J19:O19">
+  <conditionalFormatting sqref="D6:AG6 D7:AB7 AD7:AG7 D16:AG18 D15:H15 J15:O15 Q15:V15 X15:AC15 AE15:AG15 D20:AG45 Q19:V19 X19:AC19 AE19:AG19 D19:H19 J19:O19 D8:AG13 D14:G14 J14:AG14">
     <cfRule type="expression" dxfId="659" priority="145">
       <formula>NOT(ISERROR(SEARCH("H1", D6)))</formula>
     </cfRule>
@@ -44683,8 +44707,8 @@
   <dimension ref="B1:AL45"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="N6" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="AH25" sqref="AH25"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="AI12" sqref="C12:AI12"/>
       <selection pane="bottomLeft"/>
       <selection pane="topRight"/>
     </sheetView>
@@ -44700,84 +44724,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:38" ht="12" customHeight="1">
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="21"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="19"/>
     </row>
     <row r="2" spans="2:38" ht="12" customHeight="1">
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21" t="s">
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21" t="s">
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21" t="s">
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="21"/>
-      <c r="AG2" s="21" t="s">
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="19"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="19"/>
+      <c r="AF2" s="19"/>
+      <c r="AG2" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="AH2" s="21"/>
+      <c r="AH2" s="19"/>
     </row>
     <row r="3" spans="2:38" ht="12" customHeight="1">
       <c r="B3" s="7"/>
@@ -44877,13 +44901,13 @@
       <c r="AH3" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="AI3" s="19" t="s">
+      <c r="AI3" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="AK3" s="19" t="s">
+      <c r="AK3" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="AL3" s="19" t="s">
+      <c r="AL3" s="20" t="s">
         <v>38</v>
       </c>
     </row>
@@ -44983,9 +45007,9 @@
       <c r="AH4" s="2">
         <v>31</v>
       </c>
-      <c r="AI4" s="19"/>
-      <c r="AK4" s="19"/>
-      <c r="AL4" s="19"/>
+      <c r="AI4" s="20"/>
+      <c r="AK4" s="20"/>
+      <c r="AL4" s="20"/>
     </row>
     <row r="5" spans="2:38" ht="12" customHeight="1">
       <c r="B5" s="7"/>
@@ -45083,9 +45107,9 @@
       <c r="AH5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AI5" s="19"/>
-      <c r="AK5" s="19"/>
-      <c r="AL5" s="19"/>
+      <c r="AI5" s="20"/>
+      <c r="AK5" s="20"/>
+      <c r="AL5" s="20"/>
     </row>
     <row r="6" spans="2:38" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="4" t="str">
@@ -45131,8 +45155,8 @@
         <f t="shared" ref="AI6:AI20" si="0">(COUNTIF(D6:AH6,"H")*1)+(COUNTIF(D6:AH6,"H1")*0.5)+(COUNTIF(D6:AH6,"H2")*0.5)+(COUNTIF(D6:AH6,"Q")*0.25)+(COUNTIF(D6:AH6,"E")*1)</f>
         <v>0</v>
       </c>
-      <c r="AK6" s="20"/>
-      <c r="AL6" s="20"/>
+      <c r="AK6" s="21"/>
+      <c r="AL6" s="21"/>
     </row>
     <row r="7" spans="2:38" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="4" t="str">
@@ -45544,10 +45568,10 @@
         <v>0</v>
       </c>
       <c r="AK14" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL14" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="AL14" s="5" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="15" spans="2:38" ht="20.100000000000001" customHeight="1">
@@ -45563,7 +45587,7 @@
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
@@ -45572,7 +45596,7 @@
       <c r="L15" s="5"/>
       <c r="M15" s="14"/>
       <c r="N15" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O15" s="14"/>
       <c r="P15" s="14"/>
@@ -45581,7 +45605,7 @@
       <c r="S15" s="14"/>
       <c r="T15" s="14"/>
       <c r="U15" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V15" s="14"/>
       <c r="W15" s="14"/>
@@ -45590,7 +45614,7 @@
       <c r="Z15" s="14"/>
       <c r="AA15" s="14"/>
       <c r="AB15" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AC15" s="14"/>
       <c r="AD15" s="14"/>
@@ -45959,7 +45983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:35" ht="16.5">
+    <row r="24" spans="2:35">
       <c r="C24" s="4" t="str">
         <f>List!C24</f>
         <v>Saghir Bashir</v>
@@ -46879,6 +46903,11 @@
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <autoFilter ref="B1:C20" xr:uid="{00000000-0001-0000-0900-000000000000}"/>
   <mergeCells count="12">
+    <mergeCell ref="AI3:AI5"/>
+    <mergeCell ref="AK3:AK5"/>
+    <mergeCell ref="AL3:AL5"/>
+    <mergeCell ref="AK6:AL6"/>
+    <mergeCell ref="C3:C5"/>
     <mergeCell ref="D1:AH1"/>
     <mergeCell ref="D2"/>
     <mergeCell ref="E2:K2"/>
@@ -46886,11 +46915,6 @@
     <mergeCell ref="S2:Y2"/>
     <mergeCell ref="Z2:AF2"/>
     <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI3:AI5"/>
-    <mergeCell ref="AK3:AK5"/>
-    <mergeCell ref="AL3:AL5"/>
-    <mergeCell ref="AK6:AL6"/>
-    <mergeCell ref="C3:C5"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:AH14 D15:F15 H15:M15 O15:T15 V15:AA15 AC15:AH15 D16:AH45">
     <cfRule type="expression" dxfId="527" priority="97">
@@ -47185,80 +47209,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:37" ht="12" customHeight="1">
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="21"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="19"/>
     </row>
     <row r="2" spans="2:37" ht="12" customHeight="1">
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21" t="s">
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21" t="s">
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21" t="s">
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21" t="s">
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="19"/>
+      <c r="AD2" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="21"/>
-      <c r="AG2" s="21"/>
+      <c r="AE2" s="19"/>
+      <c r="AF2" s="19"/>
+      <c r="AG2" s="19"/>
     </row>
     <row r="3" spans="2:37" ht="12" customHeight="1">
       <c r="B3" s="7"/>
@@ -47355,13 +47379,13 @@
       <c r="AG3" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="AH3" s="19" t="s">
+      <c r="AH3" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="AJ3" s="19" t="s">
+      <c r="AJ3" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="AK3" s="19" t="s">
+      <c r="AK3" s="20" t="s">
         <v>38</v>
       </c>
     </row>
@@ -47458,9 +47482,9 @@
       <c r="AG4" s="2">
         <v>30</v>
       </c>
-      <c r="AH4" s="19"/>
-      <c r="AJ4" s="19"/>
-      <c r="AK4" s="19"/>
+      <c r="AH4" s="20"/>
+      <c r="AJ4" s="20"/>
+      <c r="AK4" s="20"/>
     </row>
     <row r="5" spans="2:37" ht="12" customHeight="1">
       <c r="B5" s="7"/>
@@ -47555,9 +47579,9 @@
       <c r="AG5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AH5" s="19"/>
-      <c r="AJ5" s="19"/>
-      <c r="AK5" s="19"/>
+      <c r="AH5" s="20"/>
+      <c r="AJ5" s="20"/>
+      <c r="AK5" s="20"/>
     </row>
     <row r="6" spans="2:37" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="4" t="str">
@@ -47604,8 +47628,8 @@
         <f t="shared" ref="AH6:AH20" si="0">(COUNTIF(D6:AG6,"H")*1)+(COUNTIF(D6:AG6,"H1")*0.5)+(COUNTIF(D6:AG6,"H2")*0.5)+(COUNTIF(D6:AG6,"Q")*0.25)+(COUNTIF(D6:AG6,"E")*1)</f>
         <v>0</v>
       </c>
-      <c r="AJ6" s="20"/>
-      <c r="AK6" s="20"/>
+      <c r="AJ6" s="21"/>
+      <c r="AK6" s="21"/>
     </row>
     <row r="7" spans="2:37" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="4" t="str">
@@ -48031,10 +48055,10 @@
         <v>0</v>
       </c>
       <c r="AJ14" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK14" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="AK14" s="5" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="15" spans="2:37" ht="20.100000000000001" customHeight="1">
@@ -48056,7 +48080,7 @@
       <c r="I15" s="14"/>
       <c r="J15" s="14"/>
       <c r="K15" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="14"/>
       <c r="M15" s="14"/>
@@ -48065,7 +48089,7 @@
       <c r="P15" s="14"/>
       <c r="Q15" s="14"/>
       <c r="R15" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S15" s="14"/>
       <c r="T15" s="14"/>
@@ -48074,7 +48098,7 @@
       <c r="W15" s="14"/>
       <c r="X15" s="14"/>
       <c r="Y15" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Z15" s="14"/>
       <c r="AA15" s="14"/>
@@ -48083,7 +48107,7 @@
       <c r="AD15" s="14"/>
       <c r="AE15" s="14"/>
       <c r="AF15" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AG15" s="14"/>
       <c r="AH15" s="6">
@@ -48499,7 +48523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:34" ht="16.5">
+    <row r="25" spans="2:34">
       <c r="B25" s="4" t="str">
         <f>List!B25</f>
         <v>T</v>
@@ -49435,17 +49459,17 @@
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <autoFilter ref="B1:C20" xr:uid="{00000000-0001-0000-0A00-000000000000}"/>
   <mergeCells count="11">
+    <mergeCell ref="AH3:AH5"/>
+    <mergeCell ref="AJ3:AJ5"/>
+    <mergeCell ref="AK3:AK5"/>
+    <mergeCell ref="AJ6:AK6"/>
+    <mergeCell ref="C3:C5"/>
     <mergeCell ref="D1:AG1"/>
     <mergeCell ref="D2:H2"/>
     <mergeCell ref="I2:O2"/>
     <mergeCell ref="P2:V2"/>
     <mergeCell ref="W2:AC2"/>
     <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="AH3:AH5"/>
-    <mergeCell ref="AJ3:AJ5"/>
-    <mergeCell ref="AK3:AK5"/>
-    <mergeCell ref="AJ6:AK6"/>
-    <mergeCell ref="C3:C5"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:AG6 D8:AG14 D7:E7 G7:AG7 D16:AG18 D15:I15 L15:P15 S15:X15 Z15:AE15 AG15 D20:AG45 D19:J19 L19:Q19 S19:X19 Z19:AE19 AG19">
     <cfRule type="expression" dxfId="443" priority="169">
@@ -49854,82 +49878,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:38" ht="12" customHeight="1">
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="21"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="19"/>
     </row>
     <row r="2" spans="2:38" ht="12" customHeight="1">
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21" t="s">
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21" t="s">
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21" t="s">
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21" t="s">
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="21"/>
-      <c r="AG2" s="21"/>
-      <c r="AH2" s="21"/>
+      <c r="AC2" s="19"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="19"/>
+      <c r="AF2" s="19"/>
+      <c r="AG2" s="19"/>
+      <c r="AH2" s="19"/>
     </row>
     <row r="3" spans="2:38" ht="12" customHeight="1">
       <c r="B3" s="7"/>
@@ -50029,13 +50053,13 @@
       <c r="AH3" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="AI3" s="19" t="s">
+      <c r="AI3" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="AK3" s="19" t="s">
+      <c r="AK3" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="AL3" s="19" t="s">
+      <c r="AL3" s="20" t="s">
         <v>38</v>
       </c>
     </row>
@@ -50135,9 +50159,9 @@
       <c r="AH4" s="2">
         <v>31</v>
       </c>
-      <c r="AI4" s="19"/>
-      <c r="AK4" s="19"/>
-      <c r="AL4" s="19"/>
+      <c r="AI4" s="20"/>
+      <c r="AK4" s="20"/>
+      <c r="AL4" s="20"/>
     </row>
     <row r="5" spans="2:38" ht="12" customHeight="1">
       <c r="B5" s="7"/>
@@ -50235,9 +50259,9 @@
       <c r="AH5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AI5" s="19"/>
-      <c r="AK5" s="19"/>
-      <c r="AL5" s="19"/>
+      <c r="AI5" s="20"/>
+      <c r="AK5" s="20"/>
+      <c r="AL5" s="20"/>
     </row>
     <row r="6" spans="2:38" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="4" t="str">
@@ -50285,8 +50309,8 @@
         <f t="shared" ref="AI6:AI20" si="0">(COUNTIF(D6:AH6,"H")*1)+(COUNTIF(D6:AH6,"H1")*0.5)+(COUNTIF(D6:AH6,"H2")*0.5)+(COUNTIF(D6:AH6,"Q")*0.25)+(COUNTIF(D6:AH6,"E")*1)</f>
         <v>0</v>
       </c>
-      <c r="AK6" s="20"/>
-      <c r="AL6" s="20"/>
+      <c r="AK6" s="21"/>
+      <c r="AL6" s="21"/>
     </row>
     <row r="7" spans="2:38" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="4" t="str">
@@ -50724,10 +50748,10 @@
         <v>0</v>
       </c>
       <c r="AK14" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL14" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="AL14" s="5" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="15" spans="2:38" ht="20.100000000000001" customHeight="1">
@@ -50745,7 +50769,7 @@
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J15" s="14"/>
       <c r="K15" s="14"/>
@@ -50754,7 +50778,7 @@
       <c r="N15" s="14"/>
       <c r="O15" s="14"/>
       <c r="P15" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="14"/>
       <c r="R15" s="14"/>
@@ -50763,7 +50787,7 @@
       <c r="U15" s="14"/>
       <c r="V15" s="14"/>
       <c r="W15" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X15" s="14"/>
       <c r="Y15" s="14"/>
@@ -50774,7 +50798,7 @@
       </c>
       <c r="AC15" s="14"/>
       <c r="AD15" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AE15" s="14"/>
       <c r="AF15" s="14"/>
@@ -51138,7 +51162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:35" ht="16.5">
+    <row r="23" spans="2:35">
       <c r="B23" s="4" t="str">
         <f>List!B23</f>
         <v>P</v>
@@ -51193,7 +51217,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:35" ht="16.5">
+    <row r="24" spans="2:35">
       <c r="B24" s="4" t="str">
         <f>List!B24</f>
         <v>T</v>
@@ -52189,17 +52213,17 @@
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <autoFilter ref="B1:C20" xr:uid="{00000000-0001-0000-0B00-000000000000}"/>
   <mergeCells count="11">
+    <mergeCell ref="AI3:AI5"/>
+    <mergeCell ref="AK3:AK5"/>
+    <mergeCell ref="AL3:AL5"/>
+    <mergeCell ref="AK6:AL6"/>
+    <mergeCell ref="C3:C5"/>
     <mergeCell ref="D1:AH1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:M2"/>
     <mergeCell ref="N2:T2"/>
     <mergeCell ref="U2:AA2"/>
     <mergeCell ref="AB2:AH2"/>
-    <mergeCell ref="AI3:AI5"/>
-    <mergeCell ref="AK3:AK5"/>
-    <mergeCell ref="AL3:AL5"/>
-    <mergeCell ref="AK6:AL6"/>
-    <mergeCell ref="C3:C5"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:AH6 D8:AH14 D7:AA7 AD7:AH7 D15:H15 J15:O15 Q15:V15 X15:AC15 AE15:AH15 D16:AH45">
     <cfRule type="expression" dxfId="323" priority="97">
@@ -52494,82 +52518,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:38" ht="12" customHeight="1">
-      <c r="D1" s="21">
+      <c r="D1" s="19">
         <v>2024</v>
       </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="21"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="19"/>
     </row>
     <row r="2" spans="2:38" ht="12" customHeight="1">
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21" t="s">
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21" t="s">
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21" t="s">
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="21" t="s">
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="19"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="19"/>
+      <c r="AF2" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="AG2" s="21"/>
-      <c r="AH2" s="21"/>
+      <c r="AG2" s="19"/>
+      <c r="AH2" s="19"/>
     </row>
     <row r="3" spans="2:38" ht="12" customHeight="1">
       <c r="B3" s="7"/>
@@ -52669,13 +52693,13 @@
       <c r="AH3" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="AI3" s="19" t="s">
+      <c r="AI3" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="AK3" s="19" t="s">
+      <c r="AK3" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="AL3" s="19" t="s">
+      <c r="AL3" s="20" t="s">
         <v>38</v>
       </c>
     </row>
@@ -52775,9 +52799,9 @@
       <c r="AH4" s="2">
         <v>31</v>
       </c>
-      <c r="AI4" s="19"/>
-      <c r="AK4" s="19"/>
-      <c r="AL4" s="19"/>
+      <c r="AI4" s="20"/>
+      <c r="AK4" s="20"/>
+      <c r="AL4" s="20"/>
     </row>
     <row r="5" spans="2:38" ht="12" customHeight="1">
       <c r="B5" s="7"/>
@@ -52875,9 +52899,9 @@
       <c r="AH5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AI5" s="19"/>
-      <c r="AK5" s="19"/>
-      <c r="AL5" s="19"/>
+      <c r="AI5" s="20"/>
+      <c r="AK5" s="20"/>
+      <c r="AL5" s="20"/>
     </row>
     <row r="6" spans="2:38" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="4" t="str">
@@ -52925,8 +52949,8 @@
         <f t="shared" ref="AI6:AI45" si="0">(COUNTIF(D6:AH6,"H")*1)+(COUNTIF(D6:AH6,"H1")*0.5)+(COUNTIF(D6:AH6,"H2")*0.5)+(COUNTIF(D6:AH6,"Q")*0.25)+(COUNTIF(D6:AH6,"E")*1)</f>
         <v>0</v>
       </c>
-      <c r="AK6" s="20"/>
-      <c r="AL6" s="20"/>
+      <c r="AK6" s="21"/>
+      <c r="AL6" s="21"/>
     </row>
     <row r="7" spans="2:38" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="4" t="str">
@@ -53354,10 +53378,10 @@
         <v>0</v>
       </c>
       <c r="AK14" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL14" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="AL14" s="5" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="15" spans="2:38" ht="20.100000000000001" customHeight="1">
@@ -54789,17 +54813,17 @@
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <autoFilter ref="B1:C40" xr:uid="{00000000-0001-0000-0700-000000000000}"/>
   <mergeCells count="11">
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="AI3:AI5"/>
-    <mergeCell ref="AK3:AK5"/>
-    <mergeCell ref="AL3:AL5"/>
-    <mergeCell ref="AK6:AL6"/>
     <mergeCell ref="D1:AH1"/>
     <mergeCell ref="D2:J2"/>
     <mergeCell ref="K2:Q2"/>
     <mergeCell ref="R2:X2"/>
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="AI3:AI5"/>
+    <mergeCell ref="AK3:AK5"/>
+    <mergeCell ref="AL3:AL5"/>
+    <mergeCell ref="AK6:AL6"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:AH6 D8:AH18 E7:AH7 D20:AH45 D19:F19 H19:L19 N19:S19 U19:Z19 AB19:AG19">
     <cfRule type="expression" dxfId="239" priority="37">
@@ -54978,78 +55002,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:36" ht="12" customHeight="1">
-      <c r="D1" s="21">
+      <c r="D1" s="19">
         <v>2024</v>
       </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="19"/>
     </row>
     <row r="2" spans="2:36" ht="12" customHeight="1">
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21" t="s">
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21" t="s">
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21" t="s">
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21" t="s">
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="21"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="19"/>
+      <c r="AF2" s="19"/>
     </row>
     <row r="3" spans="2:36" ht="12" customHeight="1">
       <c r="B3" s="7"/>
@@ -55143,13 +55167,13 @@
       <c r="AF3" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="AG3" s="19" t="s">
+      <c r="AG3" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="AI3" s="19" t="s">
+      <c r="AI3" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="AJ3" s="19" t="s">
+      <c r="AJ3" s="20" t="s">
         <v>38</v>
       </c>
     </row>
@@ -55243,9 +55267,9 @@
       <c r="AF4" s="2">
         <v>29</v>
       </c>
-      <c r="AG4" s="19"/>
-      <c r="AI4" s="19"/>
-      <c r="AJ4" s="19"/>
+      <c r="AG4" s="20"/>
+      <c r="AI4" s="20"/>
+      <c r="AJ4" s="20"/>
     </row>
     <row r="5" spans="2:36" ht="12" customHeight="1">
       <c r="B5" s="7"/>
@@ -55337,9 +55361,9 @@
       <c r="AF5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AG5" s="19"/>
-      <c r="AI5" s="19"/>
-      <c r="AJ5" s="19"/>
+      <c r="AG5" s="20"/>
+      <c r="AI5" s="20"/>
+      <c r="AJ5" s="20"/>
     </row>
     <row r="6" spans="2:36" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="4" t="str">
@@ -55383,8 +55407,8 @@
         <f t="shared" ref="AG6:AG45" si="0">(COUNTIF(D6:AF6,"H")*1)+(COUNTIF(D6:AF6,"H1")*0.5)+(COUNTIF(D6:AF6,"H2")*0.5)+(COUNTIF(D6:AF6,"Q")*0.25)+(COUNTIF(D6:AF6,"E")*1)</f>
         <v>0</v>
       </c>
-      <c r="AI6" s="20"/>
-      <c r="AJ6" s="20"/>
+      <c r="AI6" s="21"/>
+      <c r="AJ6" s="21"/>
     </row>
     <row r="7" spans="2:36" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="4" t="str">
@@ -55780,10 +55804,10 @@
         <v>0</v>
       </c>
       <c r="AI14" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ14" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="AJ14" s="5" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="15" spans="2:36" ht="20.100000000000001" customHeight="1">
@@ -57131,17 +57155,17 @@
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <autoFilter ref="B1:C41" xr:uid="{00000000-0001-0000-0800-000000000000}"/>
   <mergeCells count="11">
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="AG3:AG5"/>
-    <mergeCell ref="AI3:AI5"/>
-    <mergeCell ref="AJ3:AJ5"/>
-    <mergeCell ref="AI6:AJ6"/>
     <mergeCell ref="D1:AF1"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="H2:N2"/>
     <mergeCell ref="O2:U2"/>
     <mergeCell ref="V2:AB2"/>
     <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="AG3:AG5"/>
+    <mergeCell ref="AI3:AI5"/>
+    <mergeCell ref="AJ3:AJ5"/>
+    <mergeCell ref="AI6:AJ6"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:AF18 D20:AF45 D19:I19 K19:P19 R19:W19 Y19:AD19 AF19">
     <cfRule type="expression" dxfId="191" priority="37">
@@ -57518,6 +57542,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -57526,20 +57556,14 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C539305-4F49-42D2-A424-7E3211A308D1}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3CE10CE3-055B-4063-8E5C-70F6EBEDAE46}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7D3BE28-260D-4FFE-98A3-F6B2DC8380B8}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7D3BE28-260D-4FFE-98A3-F6B2DC8380B8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3CE10CE3-055B-4063-8E5C-70F6EBEDAE46}"/>
 </file>